--- a/output/fit_clients/fit_round_326.xlsx
+++ b/output/fit_clients/fit_round_326.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1864486794.750405</v>
+        <v>2204309983.31038</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09922496594975135</v>
+        <v>0.101625629782955</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04489481076889924</v>
+        <v>0.03546466506671826</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>932243374.8400533</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2092969926.622337</v>
+        <v>2056054682.775752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1495507808152557</v>
+        <v>0.1267858157250251</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03515983182708966</v>
+        <v>0.03320779543544256</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1046485017.773705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4665983953.574018</v>
+        <v>3481193615.741007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1167195608095489</v>
+        <v>0.1273691474832777</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03833745593033432</v>
+        <v>0.02472891094764653</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2332992038.143109</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3734650380.72772</v>
+        <v>3208184250.547134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07406858555587224</v>
+        <v>0.08382545572332553</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03892484731628774</v>
+        <v>0.03499291666085938</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1867325211.639264</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1959566590.47904</v>
+        <v>2589167431.767726</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09592401253684792</v>
+        <v>0.1445963963329186</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04991358359636022</v>
+        <v>0.04480412242749472</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>63</v>
-      </c>
-      <c r="J6" t="n">
-        <v>979783329.2141026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2200057761.42875</v>
+        <v>2606615043.676713</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09726308690004783</v>
+        <v>0.08906943248325445</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03991752278287151</v>
+        <v>0.04193285075463376</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>101</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1100028922.624855</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3024488859.132103</v>
+        <v>3378900826.580928</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1663796151039691</v>
+        <v>0.1504567901276094</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02095299245815543</v>
+        <v>0.02083048615971734</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1512244489.587284</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1702271972.163334</v>
+        <v>1848855006.53976</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1647672518773944</v>
+        <v>0.1567083957732747</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03466216262476578</v>
+        <v>0.02980036034466455</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>851136054.0047586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4266348240.142479</v>
+        <v>3948850565.525788</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1355570901895639</v>
+        <v>0.1348049997945264</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03668766077045685</v>
+        <v>0.05363779684210996</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>136</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2133174162.575179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4126125792.127445</v>
+        <v>2843411602.856299</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1158350645153652</v>
+        <v>0.12169486468776</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03174809949831988</v>
+        <v>0.04783789128140195</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>134</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2063062917.511204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3156741950.085219</v>
+        <v>2798735521.402078</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1208436056265848</v>
+        <v>0.124529128081465</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04870513698704027</v>
+        <v>0.04878719378426594</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>111</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1578371007.430844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3331423612.580802</v>
+        <v>4175532469.274254</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09697815523310323</v>
+        <v>0.08236614135606979</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01994872822000758</v>
+        <v>0.023566658785843</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>109</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1665711895.182969</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2886745657.803926</v>
+        <v>3569150921.993033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1502274679153123</v>
+        <v>0.1190896510699814</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02879127096296276</v>
+        <v>0.04389576272855208</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1443372871.550126</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1227504518.774929</v>
+        <v>1598071316.254606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09401128737378138</v>
+        <v>0.07088451214733187</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0332665328384583</v>
+        <v>0.04952492185903772</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>613752283.1139505</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2106649401.214695</v>
+        <v>1807868188.357426</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08463770075727431</v>
+        <v>0.09542019933078648</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0315894729759456</v>
+        <v>0.05166997723315842</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1053324766.56772</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5330374968.93069</v>
+        <v>5232751645.913406</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1161031531747269</v>
+        <v>0.1547775572950188</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03972036376647184</v>
+        <v>0.04864379632987798</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>95</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2665187453.30246</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3883897654.377445</v>
+        <v>2890323782.400748</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1652766576026493</v>
+        <v>0.1156235431246575</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03154693229995672</v>
+        <v>0.02525382737847557</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>106</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1941948793.431718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065997624.060846</v>
+        <v>1350044985.34733</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1300945172391987</v>
+        <v>0.1367108263386572</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02065035838925259</v>
+        <v>0.02165140626837162</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>532998857.3409186</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1957757976.849018</v>
+        <v>1828065479.510981</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1070083341218119</v>
+        <v>0.1213378792336065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0193473903917628</v>
+        <v>0.01978314123907255</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>978879019.2769018</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2348962305.509296</v>
+        <v>2189949406.383071</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06373748872878923</v>
+        <v>0.09238363727743749</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04402404055768943</v>
+        <v>0.04612240503536029</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1174481155.307256</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3877845101.997757</v>
+        <v>3280385228.693607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08957792799930761</v>
+        <v>0.09242080957703387</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05579071386288259</v>
+        <v>0.03665442182642845</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1938922559.970531</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1514023076.529886</v>
+        <v>1399059376.487854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1794809856895623</v>
+        <v>0.1672778366186633</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03742929037917864</v>
+        <v>0.03910677350542498</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>757011521.8489993</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3348403339.726719</v>
+        <v>3891014249.673864</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1283909255757544</v>
+        <v>0.119967992459976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03116508800795791</v>
+        <v>0.0376566660793384</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>95</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1674201681.666988</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166306639.414795</v>
+        <v>1022769880.239267</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08974333135615117</v>
+        <v>0.119119675584635</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02829456520708242</v>
+        <v>0.02203844499059258</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>583153345.4384862</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1141204580.705307</v>
+        <v>1088175292.505609</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07733274404064017</v>
+        <v>0.1141172345387555</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02545875921782605</v>
+        <v>0.03194811488044336</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>570602296.984841</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3028378443.10847</v>
+        <v>3255180431.831079</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1471907123503398</v>
+        <v>0.1383930573141886</v>
       </c>
       <c r="G27" t="n">
-        <v>0.026205296087406</v>
+        <v>0.02579375293568062</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1514189279.958209</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2702783830.238921</v>
+        <v>2852360803.84883</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1064777859942251</v>
+        <v>0.09750013147939529</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04985227176992141</v>
+        <v>0.03420075553925172</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1351391900.573075</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5057886202.058622</v>
+        <v>4082207526.373371</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1020399583549116</v>
+        <v>0.1326352021931283</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04576585112422516</v>
+        <v>0.03736396954866499</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>143</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2528943044.552699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2049713895.63367</v>
+        <v>2013021959.207561</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09204805761046903</v>
+        <v>0.101012572829301</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02423200188326927</v>
+        <v>0.03452683475570885</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1024856990.927581</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1142163661.567807</v>
+        <v>1013726950.951396</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09908536897401267</v>
+        <v>0.06866472810001989</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03995533218725102</v>
+        <v>0.04961126148800345</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>571081795.8570725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1516689300.164654</v>
+        <v>1186201834.595721</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07906175810380191</v>
+        <v>0.1140188476056329</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0287365109463058</v>
+        <v>0.0288112394489417</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>758344721.9077338</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3054884278.935824</v>
+        <v>2692087131.291375</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1276570799290552</v>
+        <v>0.1669095982568625</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06117642385937934</v>
+        <v>0.0521049334005658</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>97</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1527442130.417524</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1267496340.655699</v>
+        <v>1459939744.838399</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08906419288711347</v>
+        <v>0.08434078865454732</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02433113946703739</v>
+        <v>0.01853864350257187</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>633748164.3647895</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1018611072.957953</v>
+        <v>1272826976.501337</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1080853264801403</v>
+        <v>0.09973131033592197</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03311195492702953</v>
+        <v>0.02978524913006811</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>509305550.9702885</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1959440799.692564</v>
+        <v>2443345107.802732</v>
       </c>
       <c r="F36" t="n">
-        <v>0.132439818077547</v>
+        <v>0.1584807611035211</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01905607543672479</v>
+        <v>0.02763260547748235</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>979720465.1413119</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2037919582.812865</v>
+        <v>1816531800.785305</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09580990255070813</v>
+        <v>0.06971349815143872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0278601757701062</v>
+        <v>0.02687869586015268</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1018959823.945123</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1671427713.86282</v>
+        <v>2027480837.252169</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1158987318209044</v>
+        <v>0.1065676853684625</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0393722515864976</v>
+        <v>0.03718094906290802</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>835713881.9739654</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1677847862.785291</v>
+        <v>1552903495.084561</v>
       </c>
       <c r="F39" t="n">
-        <v>0.186410207582237</v>
+        <v>0.1450398655772956</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02669315287382121</v>
+        <v>0.02380337045012014</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>838923974.8317358</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1646388411.138284</v>
+        <v>1442247472.846628</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1254973220890881</v>
+        <v>0.1504025679696669</v>
       </c>
       <c r="G40" t="n">
-        <v>0.052883702753899</v>
+        <v>0.051775752174548</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>823194135.1264031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2554796689.668385</v>
+        <v>2157953278.477648</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1041301410722254</v>
+        <v>0.1312818183011247</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04723679082239058</v>
+        <v>0.04711480216885111</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>82</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1277398364.756687</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3465002478.55108</v>
+        <v>3533591383.900239</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08594297587312691</v>
+        <v>0.09104167848112257</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02982064458696775</v>
+        <v>0.0400827793751088</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>106</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1732501231.715061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2897879867.748005</v>
+        <v>2989874596.225215</v>
       </c>
       <c r="F43" t="n">
-        <v>0.164470739427768</v>
+        <v>0.181431397352396</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01633020080609711</v>
+        <v>0.02591517473342251</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>116</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1448939942.530942</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2001079284.167989</v>
+        <v>1877127110.191659</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07039342619016706</v>
+        <v>0.08202704293449636</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02559374219851123</v>
+        <v>0.03377628473177945</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1000539748.635845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2425755642.894037</v>
+        <v>2336267524.124408</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1258829341496722</v>
+        <v>0.1546236263572109</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04487060981539508</v>
+        <v>0.05203550068935359</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1212877855.219286</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4083408431.364255</v>
+        <v>5314598126.796523</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1477177863738822</v>
+        <v>0.1186513407722043</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05296822471595266</v>
+        <v>0.05788014908898604</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>115</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2041704190.006643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3265564474.587869</v>
+        <v>3223759046.501831</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1783222544472905</v>
+        <v>0.1508193342307246</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05506454916773563</v>
+        <v>0.05934108975308485</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>87</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1632782194.828065</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4111215279.850477</v>
+        <v>4342170429.371373</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1088647381666155</v>
+        <v>0.09993052901891632</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03335278365006443</v>
+        <v>0.03331408763665696</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2055607667.823443</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1931569344.73494</v>
+        <v>1578571912.345071</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1933402623897362</v>
+        <v>0.1726853399080631</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02758331023073937</v>
+        <v>0.03180238468511359</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>965784637.3075877</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2782553682.91856</v>
+        <v>3317126559.642024</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1531461750370039</v>
+        <v>0.1589995511203037</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03585577450677022</v>
+        <v>0.03368121302297948</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>111</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1391276916.753648</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1141482344.415819</v>
+        <v>1107158910.568772</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1618824318971292</v>
+        <v>0.1419109172779223</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03322552462328019</v>
+        <v>0.04467244827893993</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>570741233.2484449</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4222706571.776788</v>
+        <v>4978231564.003733</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1278332651197178</v>
+        <v>0.1314820905358094</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04215157109809424</v>
+        <v>0.0413499301259323</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>134</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2111353329.262898</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2442928290.828098</v>
+        <v>3047280552.702928</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1299294339162786</v>
+        <v>0.2004220282089425</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02814869451373551</v>
+        <v>0.03555325483171169</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>93</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1221464216.319102</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4488450076.462956</v>
+        <v>4618423283.82651</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1374071820159277</v>
+        <v>0.1558762299477962</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05309101686903735</v>
+        <v>0.0525662234849625</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2244225140.674045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3140070774.549433</v>
+        <v>4200203850.208467</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1948538634100405</v>
+        <v>0.148048978582125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02941351260159568</v>
+        <v>0.02546911222129358</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1570035324.228163</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1360211824.989097</v>
+        <v>1554561755.217469</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1458159711490187</v>
+        <v>0.1628331943793044</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05506471400256231</v>
+        <v>0.04552959453377317</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>680105975.4420284</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4215795443.14959</v>
+        <v>3082675700.959312</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1438708940003292</v>
+        <v>0.1167665353063001</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02618875530908975</v>
+        <v>0.01783508572604565</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>103</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2107897828.068074</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1171375756.379969</v>
+        <v>1408864307.080472</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1668541093794876</v>
+        <v>0.1609758567386437</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02748170270339804</v>
+        <v>0.03440624876801281</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>585687939.3090416</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3768306598.526828</v>
+        <v>3836265702.282959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122051313908375</v>
+        <v>0.1289729328980933</v>
       </c>
       <c r="G59" t="n">
-        <v>0.030150501308709</v>
+        <v>0.04180798965165436</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1884153286.39066</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3447147600.83907</v>
+        <v>2352180986.450418</v>
       </c>
       <c r="F60" t="n">
-        <v>0.182766961392133</v>
+        <v>0.1365699923398932</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03126797069228758</v>
+        <v>0.03096229753983979</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1723573917.678607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2250232339.119923</v>
+        <v>2626884341.813234</v>
       </c>
       <c r="F61" t="n">
-        <v>0.150988793337865</v>
+        <v>0.1426674905696387</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02236827254665859</v>
+        <v>0.02429956762353128</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>112</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1125116220.739065</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2008992205.04743</v>
+        <v>1604215877.297532</v>
       </c>
       <c r="F62" t="n">
-        <v>0.176502999707192</v>
+        <v>0.1578956298023828</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04170236293398689</v>
+        <v>0.0425233673896687</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1004496161.959589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4348466856.979182</v>
+        <v>5388600506.177526</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1053624736465177</v>
+        <v>0.09306558168106967</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04680656381185398</v>
+        <v>0.03765490524779972</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>93</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2174233475.350853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4389379344.060583</v>
+        <v>5299295370.72926</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1743834932639562</v>
+        <v>0.1405733365749361</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03256495200807317</v>
+        <v>0.03078162245560833</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>101</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2194689735.289137</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5216230010.405102</v>
+        <v>3875917721.752263</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1331989449326508</v>
+        <v>0.111203061273431</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02975157996631572</v>
+        <v>0.02991090881456496</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>116</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2608114951.219588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4978936108.090241</v>
+        <v>4605761100.944478</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1054273519355007</v>
+        <v>0.1051050897787181</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03536586454207252</v>
+        <v>0.04024194680200763</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>94</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2489468080.055353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2416111355.390694</v>
+        <v>2672820516.739356</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09888368868566674</v>
+        <v>0.09425439971389936</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04169910376998806</v>
+        <v>0.03202292871588444</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>104</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1208055745.422144</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4751346106.528915</v>
+        <v>5033387475.39366</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1417477622148492</v>
+        <v>0.1038580112458308</v>
       </c>
       <c r="G68" t="n">
-        <v>0.037184681805597</v>
+        <v>0.03463337421745597</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2375673094.590542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2296826014.758108</v>
+        <v>1617115985.765328</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1136395529058388</v>
+        <v>0.1293766834663748</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04366532356807477</v>
+        <v>0.05867057190273557</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1148413050.718999</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2377020364.602703</v>
+        <v>3254473174.259458</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07603478476654116</v>
+        <v>0.07221494962983081</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04948462045270083</v>
+        <v>0.04169759655805184</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>93</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1188510118.713379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3509858679.235327</v>
+        <v>5223898364.301989</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1230493026387939</v>
+        <v>0.1740413414324216</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02631168890076516</v>
+        <v>0.02601701610311724</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>120</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1754929334.114539</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1993691173.621433</v>
+        <v>2115824655.740847</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08340259914743278</v>
+        <v>0.07422829026343432</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03506025221746187</v>
+        <v>0.03687527431689839</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>996845534.1877793</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2985381250.580656</v>
+        <v>2331446318.75646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07938740377137314</v>
+        <v>0.08604849201466171</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04110008343998562</v>
+        <v>0.05120330687473805</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1492690622.625623</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2449324764.343924</v>
+        <v>2926101966.741011</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1129457879111977</v>
+        <v>0.1561841830160891</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03228126371084197</v>
+        <v>0.02712198209114376</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>111</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1224662495.202328</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2016778469.328153</v>
+        <v>2001863707.41083</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1197696787674188</v>
+        <v>0.1362774423899427</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03614133869826641</v>
+        <v>0.03410367965681135</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1008389197.281217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5063759088.473915</v>
+        <v>4182617299.588706</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0885271266925117</v>
+        <v>0.08319412061244257</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03046543216093927</v>
+        <v>0.03348850505350183</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2531879573.533219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1519929696.576716</v>
+        <v>2076386666.208746</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1468894397299158</v>
+        <v>0.1623424090611259</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01997638647568346</v>
+        <v>0.02839761075547634</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>759964838.8974682</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3115084422.089838</v>
+        <v>4719311179.913076</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1218218596343316</v>
+        <v>0.1055469978244016</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05522382269236627</v>
+        <v>0.04427157986739504</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>113</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1557542240.087977</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1716541086.645497</v>
+        <v>1815929788.711962</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1074614388245913</v>
+        <v>0.1614375551366367</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0246158636580092</v>
+        <v>0.03423795261810046</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>858270615.4224561</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4251365676.758349</v>
+        <v>5103086829.282294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1100387692083381</v>
+        <v>0.1101999281308992</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02837866460278221</v>
+        <v>0.02741286518910325</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2125682850.369901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4443177547.787272</v>
+        <v>4005208438.813246</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1241713001176925</v>
+        <v>0.1005565684680311</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0204447944521339</v>
+        <v>0.03077769530980344</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2221588753.543626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3767623330.579606</v>
+        <v>3425378876.420455</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1638716451354809</v>
+        <v>0.2080022900791178</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02338895043622419</v>
+        <v>0.02314719423453181</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>115</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1883811718.017566</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1897098588.352245</v>
+        <v>1738091466.597756</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1518619921858956</v>
+        <v>0.1257503413060759</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04213315141852336</v>
+        <v>0.04159679125529817</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>948549266.6531023</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2250606437.574488</v>
+        <v>2098316080.288351</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1082455096233896</v>
+        <v>0.07722155994873824</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04489804726822286</v>
+        <v>0.03781792710835833</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1125303187.104437</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2964299278.264398</v>
+        <v>2629894626.754079</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1605418254706858</v>
+        <v>0.1412509637329809</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04002323755213981</v>
+        <v>0.03614133906279574</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>122</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1482149695.368776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2303805314.373934</v>
+        <v>1718579579.035628</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1666472405012198</v>
+        <v>0.1517287189146014</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02381942618073</v>
+        <v>0.02169719020778579</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1151902727.069899</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1489183802.140311</v>
+        <v>1187543341.296179</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1190283478759068</v>
+        <v>0.1278497200600495</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0290460248833832</v>
+        <v>0.03896773605049614</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>744592030.7917732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2676891673.543674</v>
+        <v>2677389320.500348</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1466628833075903</v>
+        <v>0.1719846595913943</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03811686150507512</v>
+        <v>0.02578251471898965</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>128</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1338445835.301853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2695151929.976181</v>
+        <v>2311080955.86162</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1306908920081078</v>
+        <v>0.1352911931468336</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02860568194545424</v>
+        <v>0.04031893243588684</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1347576025.462517</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1620188813.13348</v>
+        <v>1819332095.928387</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1263828540368903</v>
+        <v>0.1148379735343903</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03507019472678199</v>
+        <v>0.04482530226203121</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>810094407.2999558</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1541916262.391398</v>
+        <v>2103006539.066954</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1775467444259257</v>
+        <v>0.1647813514651511</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03888804592235649</v>
+        <v>0.06162755453107034</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>770958164.5311732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2672882799.491742</v>
+        <v>2943091741.665752</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1029953800420966</v>
+        <v>0.06866922635630404</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04372810712793439</v>
+        <v>0.04376187841200037</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1336441396.805046</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4820595299.352935</v>
+        <v>3251631399.329672</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1134019479464797</v>
+        <v>0.1065534627190438</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04465593556178615</v>
+        <v>0.04800012306065931</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2410297597.246466</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2530864270.963955</v>
+        <v>1706142915.832109</v>
       </c>
       <c r="F94" t="n">
-        <v>0.155404369253511</v>
+        <v>0.1678425271583375</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03627236122707747</v>
+        <v>0.03171064432960181</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1265432202.910812</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2962381380.383998</v>
+        <v>3218100661.11569</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09395560341975037</v>
+        <v>0.08840300948076284</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04776260282571798</v>
+        <v>0.0506052676989751</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>78</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1481190692.668103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2247809920.050923</v>
+        <v>1496424308.755603</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1211571795369124</v>
+        <v>0.1126562353013501</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04732884117365495</v>
+        <v>0.02903249394280335</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1123904920.553855</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3919316771.551432</v>
+        <v>4313388755.721411</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1537654846738937</v>
+        <v>0.1166778804294517</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02238726022118526</v>
+        <v>0.02464688546698546</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>104</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1959658435.668993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2964267866.507933</v>
+        <v>2681385931.721177</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08371918153245261</v>
+        <v>0.1126432678297968</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03131290674537827</v>
+        <v>0.02381504654864031</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1482133915.560743</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3302252695.201489</v>
+        <v>2148573127.767013</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1128935585624272</v>
+        <v>0.1080176286393588</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02559574268796197</v>
+        <v>0.02583081144238144</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>101</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1651126355.440453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4123820415.056672</v>
+        <v>4350048908.239407</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1607510672661121</v>
+        <v>0.1637005990884355</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02260190037879404</v>
+        <v>0.01779681722167558</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2061910288.100084</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2719670232.011098</v>
+        <v>2991057829.400535</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1972646351662591</v>
+        <v>0.2081765635303925</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0462315040065218</v>
+        <v>0.0494431831069994</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>130</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1359835168.064973</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_326.xlsx
+++ b/output/fit_clients/fit_round_326.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2204309983.31038</v>
+        <v>2043751581.486088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101625629782955</v>
+        <v>0.07042975468413937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03546466506671826</v>
+        <v>0.04271479973636419</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2056054682.775752</v>
+        <v>2463068174.532796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1267858157250251</v>
+        <v>0.1782849295536882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03320779543544256</v>
+        <v>0.04210705904158137</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3481193615.741007</v>
+        <v>3763158888.085984</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1273691474832777</v>
+        <v>0.122717753029977</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02472891094764653</v>
+        <v>0.02662285898263241</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3208184250.547134</v>
+        <v>3530844789.979256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08382545572332553</v>
+        <v>0.08355324254931697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03499291666085938</v>
+        <v>0.04839238133568476</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2589167431.767726</v>
+        <v>2526152105.469246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445963963329186</v>
+        <v>0.1110036029461547</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04480412242749472</v>
+        <v>0.0548963668558002</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2606615043.676713</v>
+        <v>2953576267.408325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08906943248325445</v>
+        <v>0.06831781226880372</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04193285075463376</v>
+        <v>0.04199160414003261</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3378900826.580928</v>
+        <v>3562677492.414721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1504567901276094</v>
+        <v>0.1372827114145583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02083048615971734</v>
+        <v>0.02697036775493561</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1848855006.53976</v>
+        <v>2249929132.059272</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1567083957732747</v>
+        <v>0.1528286282862342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02980036034466455</v>
+        <v>0.03270230543867606</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3948850565.525788</v>
+        <v>4480165086.31365</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1348049997945264</v>
+        <v>0.1382767834585801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05363779684210996</v>
+        <v>0.0485692831585664</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2843411602.856299</v>
+        <v>3457518274.603084</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12169486468776</v>
+        <v>0.1889639847878992</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04783789128140195</v>
+        <v>0.03782033972120134</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2798735521.402078</v>
+        <v>2540399528.503819</v>
       </c>
       <c r="F12" t="n">
-        <v>0.124529128081465</v>
+        <v>0.1854772355606063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04878719378426594</v>
+        <v>0.03851505276166081</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4175532469.274254</v>
+        <v>5092985922.171498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08236614135606979</v>
+        <v>0.09707693356523546</v>
       </c>
       <c r="G13" t="n">
-        <v>0.023566658785843</v>
+        <v>0.02783854427417519</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3569150921.993033</v>
+        <v>2761591886.838074</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1190896510699814</v>
+        <v>0.1424984356499933</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04389576272855208</v>
+        <v>0.03065605746978379</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1598071316.254606</v>
+        <v>1316701921.417884</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07088451214733187</v>
+        <v>0.07871602838823392</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04952492185903772</v>
+        <v>0.04057170094606249</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1807868188.357426</v>
+        <v>2628626182.525708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09542019933078648</v>
+        <v>0.09818562974833585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05166997723315842</v>
+        <v>0.04104353414895005</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5232751645.913406</v>
+        <v>4381633110.740816</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1547775572950188</v>
+        <v>0.1656048729043688</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04864379632987798</v>
+        <v>0.04098143487201174</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2890323782.400748</v>
+        <v>3927295250.911621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1156235431246575</v>
+        <v>0.1800903048668684</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02525382737847557</v>
+        <v>0.02189657025575855</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1350044985.34733</v>
+        <v>1146815091.68302</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1367108263386572</v>
+        <v>0.1213400651425594</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02165140626837162</v>
+        <v>0.01850180973364748</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1828065479.510981</v>
+        <v>1859353654.577847</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1213378792336065</v>
+        <v>0.1121648917470282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01978314123907255</v>
+        <v>0.01946432765907496</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2189949406.383071</v>
+        <v>2712538139.121593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09238363727743749</v>
+        <v>0.09426206926548505</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04612240503536029</v>
+        <v>0.04097347444256173</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3280385228.693607</v>
+        <v>3382230131.605226</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09242080957703387</v>
+        <v>0.1271336118007201</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03665442182642845</v>
+        <v>0.04862459053679256</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1399059376.487854</v>
+        <v>1232677790.469268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1672778366186633</v>
+        <v>0.1132248635689281</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03910677350542498</v>
+        <v>0.03956006525900817</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3891014249.673864</v>
+        <v>3451703774.090932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.119967992459976</v>
+        <v>0.10384413115017</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0376566660793384</v>
+        <v>0.03082400413021511</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1022769880.239267</v>
+        <v>1354249795.038674</v>
       </c>
       <c r="F25" t="n">
-        <v>0.119119675584635</v>
+        <v>0.09264360173896001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02203844499059258</v>
+        <v>0.03015042165105755</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088175292.505609</v>
+        <v>1314277399.374837</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1141172345387555</v>
+        <v>0.1129796775837627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03194811488044336</v>
+        <v>0.03008388531712531</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3255180431.831079</v>
+        <v>4086324363.504497</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1383930573141886</v>
+        <v>0.1121588151214336</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02579375293568062</v>
+        <v>0.02312413339151719</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2852360803.84883</v>
+        <v>2671785422.898329</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09750013147939529</v>
+        <v>0.1323445771122425</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03420075553925172</v>
+        <v>0.03640011715740432</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4082207526.373371</v>
+        <v>4105229046.620468</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1326352021931283</v>
+        <v>0.1420653315605377</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03736396954866499</v>
+        <v>0.03405718963982177</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2013021959.207561</v>
+        <v>1747409005.935067</v>
       </c>
       <c r="F30" t="n">
-        <v>0.101012572829301</v>
+        <v>0.0955729646997744</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03452683475570885</v>
+        <v>0.03835042632420425</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1013726950.951396</v>
+        <v>1412387667.429905</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06866472810001989</v>
+        <v>0.07521638352456822</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04961126148800345</v>
+        <v>0.03460899287645369</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1186201834.595721</v>
+        <v>1655414106.466819</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1140188476056329</v>
+        <v>0.08420964564864619</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0288112394489417</v>
+        <v>0.03811022197007825</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2692087131.291375</v>
+        <v>2946565551.353045</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1669095982568625</v>
+        <v>0.137207207519842</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0521049334005658</v>
+        <v>0.06008180601476888</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1459939744.838399</v>
+        <v>1303690426.446469</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08434078865454732</v>
+        <v>0.117761039170693</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01853864350257187</v>
+        <v>0.01892860580682776</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1272826976.501337</v>
+        <v>947531856.1219209</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09973131033592197</v>
+        <v>0.07320641428974609</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02978524913006811</v>
+        <v>0.03958195298325427</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2443345107.802732</v>
+        <v>3198871074.087022</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1584807611035211</v>
+        <v>0.1685228870175771</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02763260547748235</v>
+        <v>0.02714223972382392</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1816531800.785305</v>
+        <v>2853734813.843076</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06971349815143872</v>
+        <v>0.09268106724806426</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02687869586015268</v>
+        <v>0.03890393190655778</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2027480837.252169</v>
+        <v>1684679530.40328</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1065676853684625</v>
+        <v>0.08289738408176223</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03718094906290802</v>
+        <v>0.02896478766137396</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1552903495.084561</v>
+        <v>1676620784.378007</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1450398655772956</v>
+        <v>0.1347102768152932</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02380337045012014</v>
+        <v>0.03299764696469445</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1442247472.846628</v>
+        <v>1537216560.878141</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1504025679696669</v>
+        <v>0.1167469495423578</v>
       </c>
       <c r="G40" t="n">
-        <v>0.051775752174548</v>
+        <v>0.04695931295412527</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2157953278.477648</v>
+        <v>1851005779.223528</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1312818183011247</v>
+        <v>0.1570882772192184</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04711480216885111</v>
+        <v>0.03018060170759131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3533591383.900239</v>
+        <v>3552615787.836179</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09104167848112257</v>
+        <v>0.1218514553184253</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0400827793751088</v>
+        <v>0.03761426819155386</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2989874596.225215</v>
+        <v>2329043657.470495</v>
       </c>
       <c r="F43" t="n">
-        <v>0.181431397352396</v>
+        <v>0.1334125368198377</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02591517473342251</v>
+        <v>0.01910855383094946</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1877127110.191659</v>
+        <v>2101838996.248175</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08202704293449636</v>
+        <v>0.09927591856327642</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03377628473177945</v>
+        <v>0.03339484669394831</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2336267524.124408</v>
+        <v>1569639868.488668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1546236263572109</v>
+        <v>0.1738600998593657</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05203550068935359</v>
+        <v>0.04432642219643052</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5314598126.796523</v>
+        <v>4628094933.857173</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1186513407722043</v>
+        <v>0.1504529074832808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05788014908898604</v>
+        <v>0.06083353482438526</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3223759046.501831</v>
+        <v>3885588188.736791</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508193342307246</v>
+        <v>0.1440306010498161</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05934108975308485</v>
+        <v>0.05618843022267383</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4342170429.371373</v>
+        <v>3923067983.502945</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09993052901891632</v>
+        <v>0.07239111746654162</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03331408763665696</v>
+        <v>0.02548870043266975</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1578571912.345071</v>
+        <v>1491951253.108442</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1726853399080631</v>
+        <v>0.161649520144715</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03180238468511359</v>
+        <v>0.03763012910599485</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3317126559.642024</v>
+        <v>3261292752.821115</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1589995511203037</v>
+        <v>0.140518644186821</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03368121302297948</v>
+        <v>0.04756657337267606</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1107158910.568772</v>
+        <v>947090795.0243579</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1419109172779223</v>
+        <v>0.167263954809135</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04467244827893993</v>
+        <v>0.04695443375587863</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4978231564.003733</v>
+        <v>4255602266.755078</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1314820905358094</v>
+        <v>0.131081549346473</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0413499301259323</v>
+        <v>0.05624317056849559</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3047280552.702928</v>
+        <v>2909785800.134463</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2004220282089425</v>
+        <v>0.1625376096549535</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03555325483171169</v>
+        <v>0.03371829533219517</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4618423283.82651</v>
+        <v>3725822570.569442</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1558762299477962</v>
+        <v>0.1517477450316281</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0525662234849625</v>
+        <v>0.04592351425093037</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4200203850.208467</v>
+        <v>3453666608.53741</v>
       </c>
       <c r="F55" t="n">
-        <v>0.148048978582125</v>
+        <v>0.1981624054374509</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02546911222129358</v>
+        <v>0.03199569594594756</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1554561755.217469</v>
+        <v>1137558336.023512</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1628331943793044</v>
+        <v>0.1283160959849041</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04552959453377317</v>
+        <v>0.05678479006209309</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3082675700.959312</v>
+        <v>4463488961.116478</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1167665353063001</v>
+        <v>0.1809617076193041</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01783508572604565</v>
+        <v>0.02108643631613018</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1408864307.080472</v>
+        <v>1718342363.076438</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1609758567386437</v>
+        <v>0.1263509615717404</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03440624876801281</v>
+        <v>0.02404699280954949</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3836265702.282959</v>
+        <v>4900523866.222964</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1289729328980933</v>
+        <v>0.1010104144643944</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04180798965165436</v>
+        <v>0.03361094159336817</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2352180986.450418</v>
+        <v>2916253921.563408</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1365699923398932</v>
+        <v>0.1403301392982262</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03096229753983979</v>
+        <v>0.02110909299295492</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2626884341.813234</v>
+        <v>2200554889.627726</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1426674905696387</v>
+        <v>0.1253105488851995</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02429956762353128</v>
+        <v>0.0216401289183474</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1604215877.297532</v>
+        <v>1909653956.852747</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1578956298023828</v>
+        <v>0.1478841476255947</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0425233673896687</v>
+        <v>0.04118178946813632</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5388600506.177526</v>
+        <v>5280358397.412941</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09306558168106967</v>
+        <v>0.1012915551118107</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03765490524779972</v>
+        <v>0.04755807547395972</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5299295370.72926</v>
+        <v>3547612690.998891</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1405733365749361</v>
+        <v>0.1513647430988732</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03078162245560833</v>
+        <v>0.02377965326209808</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3875917721.752263</v>
+        <v>4834746174.477067</v>
       </c>
       <c r="F65" t="n">
-        <v>0.111203061273431</v>
+        <v>0.1129812380191762</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02991090881456496</v>
+        <v>0.02237435953210395</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4605761100.944478</v>
+        <v>3505125569.128224</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051050897787181</v>
+        <v>0.1129778697702093</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04024194680200763</v>
+        <v>0.04722008672187117</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2672820516.739356</v>
+        <v>3312266128.653152</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09425439971389936</v>
+        <v>0.09888830884697702</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03202292871588444</v>
+        <v>0.0503648034516336</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5033387475.39366</v>
+        <v>5685140184.360093</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1038580112458308</v>
+        <v>0.113972163930472</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03463337421745597</v>
+        <v>0.04716605415966277</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1617115985.765328</v>
+        <v>1656703258.763833</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1293766834663748</v>
+        <v>0.126463557297458</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05867057190273557</v>
+        <v>0.0428413514471576</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3254473174.259458</v>
+        <v>3217935817.804672</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07221494962983081</v>
+        <v>0.08192863635443245</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04169759655805184</v>
+        <v>0.03834177227626511</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5223898364.301989</v>
+        <v>3643089154.796476</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1740413414324216</v>
+        <v>0.1487909927626482</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02601701610311724</v>
+        <v>0.02228089204885292</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2115824655.740847</v>
+        <v>1461234168.406878</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07422829026343432</v>
+        <v>0.09564624698294603</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03687527431689839</v>
+        <v>0.04380063718723971</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2331446318.75646</v>
+        <v>2407584787.448627</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08604849201466171</v>
+        <v>0.1120952522769587</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05120330687473805</v>
+        <v>0.05197597015791687</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2926101966.741011</v>
+        <v>3848314377.573304</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1561841830160891</v>
+        <v>0.1223575742403888</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02712198209114376</v>
+        <v>0.02923683990573909</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2001863707.41083</v>
+        <v>1622755564.411683</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1362774423899427</v>
+        <v>0.1202057888413437</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03410367965681135</v>
+        <v>0.02636016486794271</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4182617299.588706</v>
+        <v>4379564160.037504</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08319412061244257</v>
+        <v>0.1013806985515388</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03348850505350183</v>
+        <v>0.03030379359056463</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2076386666.208746</v>
+        <v>1533289388.216394</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1623424090611259</v>
+        <v>0.1694833811683488</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02839761075547634</v>
+        <v>0.02202171257361931</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4719311179.913076</v>
+        <v>4357264399.617815</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1055469978244016</v>
+        <v>0.1166737705614684</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04427157986739504</v>
+        <v>0.03871425759020287</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1815929788.711962</v>
+        <v>1229016211.678752</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1614375551366367</v>
+        <v>0.1247974466598461</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03423795261810046</v>
+        <v>0.03867050673747544</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5103086829.282294</v>
+        <v>5225666344.505858</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1101999281308992</v>
+        <v>0.09434862452646949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02741286518910325</v>
+        <v>0.02546358557533553</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4005208438.813246</v>
+        <v>5156777505.931153</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1005565684680311</v>
+        <v>0.124812853223337</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03077769530980344</v>
+        <v>0.02483099460860525</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3425378876.420455</v>
+        <v>4913264454.258472</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2080022900791178</v>
+        <v>0.1367736962788476</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02314719423453181</v>
+        <v>0.02523846217812442</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1738091466.597756</v>
+        <v>1736671763.35865</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1257503413060759</v>
+        <v>0.09875637722156116</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04159679125529817</v>
+        <v>0.02955863557039432</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2098316080.288351</v>
+        <v>2321374809.610272</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07722155994873824</v>
+        <v>0.1162509902821186</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03781792710835833</v>
+        <v>0.04068064639826818</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2629894626.754079</v>
+        <v>3129060987.251158</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1412509637329809</v>
+        <v>0.1771094472428824</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03614133906279574</v>
+        <v>0.05405183874903802</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1718579579.035628</v>
+        <v>2623377163.005752</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1517287189146014</v>
+        <v>0.1193300264794667</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02169719020778579</v>
+        <v>0.01667976959156095</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1187543341.296179</v>
+        <v>1007618060.978176</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1278497200600495</v>
+        <v>0.1889254686420968</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03896773605049614</v>
+        <v>0.02947199353670817</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2677389320.500348</v>
+        <v>3165588853.552771</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1719846595913943</v>
+        <v>0.1568506317728009</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02578251471898965</v>
+        <v>0.02803304833729151</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2311080955.86162</v>
+        <v>2194004274.271871</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1352911931468336</v>
+        <v>0.1524652993237415</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04031893243588684</v>
+        <v>0.03611018205440828</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1819332095.928387</v>
+        <v>1560520768.621096</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1148379735343903</v>
+        <v>0.1038741124941105</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04482530226203121</v>
+        <v>0.03541275131685773</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2103006539.066954</v>
+        <v>1489897904.403324</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1647813514651511</v>
+        <v>0.1638394208963314</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06162755453107034</v>
+        <v>0.05169259375353962</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2943091741.665752</v>
+        <v>1978179881.041147</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06866922635630404</v>
+        <v>0.09677033396957697</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04376187841200037</v>
+        <v>0.04575407155901627</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3251631399.329672</v>
+        <v>3105577478.089568</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1065534627190438</v>
+        <v>0.1049194243270834</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04800012306065931</v>
+        <v>0.0437918918611049</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1706142915.832109</v>
+        <v>2236151914.391622</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1678425271583375</v>
+        <v>0.107880507836694</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03171064432960181</v>
+        <v>0.04072663533790418</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3218100661.11569</v>
+        <v>3199472319.283917</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08840300948076284</v>
+        <v>0.08819933651671041</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0506052676989751</v>
+        <v>0.03993670816187927</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1496424308.755603</v>
+        <v>1793585360.068234</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1126562353013501</v>
+        <v>0.111718189509193</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02903249394280335</v>
+        <v>0.03253879698271739</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4313388755.721411</v>
+        <v>4531419179.169827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1166778804294517</v>
+        <v>0.1693797394013483</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02464688546698546</v>
+        <v>0.02912027968479065</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2681385931.721177</v>
+        <v>3684103776.316325</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1126432678297968</v>
+        <v>0.1068586167777132</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02381504654864031</v>
+        <v>0.02620668999227116</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2148573127.767013</v>
+        <v>2799879000.416992</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1080176286393588</v>
+        <v>0.1113107710796086</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02583081144238144</v>
+        <v>0.02645629095849797</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4350048908.239407</v>
+        <v>4459630478.524599</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1637005990884355</v>
+        <v>0.1225432582721369</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01779681722167558</v>
+        <v>0.02182353899103711</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2991057829.400535</v>
+        <v>3171789369.895534</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2081765635303925</v>
+        <v>0.1609724341543594</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0494431831069994</v>
+        <v>0.05182944323098542</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_326.xlsx
+++ b/output/fit_clients/fit_round_326.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2043751581.486088</v>
+        <v>2308208435.032325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07042975468413937</v>
+        <v>0.06949973510204589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04271479973636419</v>
+        <v>0.03726595855868621</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2463068174.532796</v>
+        <v>1829953547.116317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1782849295536882</v>
+        <v>0.1261802224401212</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04210705904158137</v>
+        <v>0.04977197083019445</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3763158888.085984</v>
+        <v>4564171446.934669</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122717753029977</v>
+        <v>0.1257121753151775</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02662285898263241</v>
+        <v>0.02725771362301223</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>170</v>
+      </c>
+      <c r="J4" t="n">
+        <v>325</v>
+      </c>
+      <c r="K4" t="n">
+        <v>71.3555144621931</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3530844789.979256</v>
+        <v>3038674471.372508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08355324254931697</v>
+        <v>0.1099205925532106</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04839238133568476</v>
+        <v>0.04851258806936854</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>131</v>
+      </c>
+      <c r="J5" t="n">
+        <v>325</v>
+      </c>
+      <c r="K5" t="n">
+        <v>56.41391866549035</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2526152105.469246</v>
+        <v>1935453865.797453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1110036029461547</v>
+        <v>0.09374404184766941</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0548963668558002</v>
+        <v>0.03617134301217353</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2953576267.408325</v>
+        <v>3052347056.938281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06831781226880372</v>
+        <v>0.09144760991627801</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04199160414003261</v>
+        <v>0.04329175796656603</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3562677492.414721</v>
+        <v>3209985963.946696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1372827114145583</v>
+        <v>0.1891828888678654</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02697036775493561</v>
+        <v>0.02345987622025386</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>323</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2249929132.059272</v>
+        <v>2180047017.946681</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1528286282862342</v>
+        <v>0.1431016329241291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03270230543867606</v>
+        <v>0.02346987918436583</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4480165086.31365</v>
+        <v>4101172846.821082</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1382767834585801</v>
+        <v>0.1906845078915302</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0485692831585664</v>
+        <v>0.04595566920394033</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>282</v>
+      </c>
+      <c r="J10" t="n">
+        <v>326</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3457518274.603084</v>
+        <v>3399393764.907486</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1889639847878992</v>
+        <v>0.154077082839602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03782033972120134</v>
+        <v>0.04065292958330475</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>322</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2540399528.503819</v>
+        <v>3220555446.63972</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1854772355606063</v>
+        <v>0.166001471235487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03851505276166081</v>
+        <v>0.05290616853145795</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5092985922.171498</v>
+        <v>4286661197.581742</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09707693356523546</v>
+        <v>0.09721319854432504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02783854427417519</v>
+        <v>0.01941720725545922</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>169</v>
+      </c>
+      <c r="J13" t="n">
+        <v>326</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2761591886.838074</v>
+        <v>2866110543.685297</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1424984356499933</v>
+        <v>0.1530035690812682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03065605746978379</v>
+        <v>0.03964747920703337</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="n">
+        <v>48.85333065699756</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1316701921.417884</v>
+        <v>1207105048.591731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07871602838823392</v>
+        <v>0.09458100009228528</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04057170094606249</v>
+        <v>0.03637093569578874</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2628626182.525708</v>
+        <v>2349024391.608793</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09818562974833585</v>
+        <v>0.09001153381512804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04104353414895005</v>
+        <v>0.03945842471107028</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4381633110.740816</v>
+        <v>3343205715.426996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1656048729043688</v>
+        <v>0.1745953684467226</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04098143487201174</v>
+        <v>0.05272689896942515</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>153</v>
+      </c>
+      <c r="J17" t="n">
+        <v>324</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3927295250.911621</v>
+        <v>2946022959.672813</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1800903048668684</v>
+        <v>0.1559636336773715</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02189657025575855</v>
+        <v>0.02577376377694998</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>324</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1146815091.68302</v>
+        <v>1167616730.533254</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1213400651425594</v>
+        <v>0.1568822960437308</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01850180973364748</v>
+        <v>0.0199042293269582</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1859353654.577847</v>
+        <v>1821881940.231478</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1121648917470282</v>
+        <v>0.1505761946885454</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01946432765907496</v>
+        <v>0.02728226342885945</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2712538139.121593</v>
+        <v>1849637340.482794</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09426206926548505</v>
+        <v>0.06803557109227881</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04097347444256173</v>
+        <v>0.03064078798335612</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3382230131.605226</v>
+        <v>3305060071.029571</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1271336118007201</v>
+        <v>0.1064314314801573</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04862459053679256</v>
+        <v>0.04733076520828308</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>89</v>
+      </c>
+      <c r="J22" t="n">
+        <v>325</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56.37231377471047</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1232677790.469268</v>
+        <v>1182248856.725814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1132248635689281</v>
+        <v>0.1145703768377249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03956006525900817</v>
+        <v>0.03675397087513226</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3451703774.090932</v>
+        <v>3444691462.754778</v>
       </c>
       <c r="F24" t="n">
-        <v>0.10384413115017</v>
+        <v>0.1095512677905966</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03082400413021511</v>
+        <v>0.03045301045003001</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>322</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1354249795.038674</v>
+        <v>1456259687.525149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09264360173896001</v>
+        <v>0.08016378377465561</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03015042165105755</v>
+        <v>0.02941988442820421</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1314277399.374837</v>
+        <v>996930080.5879139</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1129796775837627</v>
+        <v>0.09594594341777815</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03008388531712531</v>
+        <v>0.03137749129660913</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4086324363.504497</v>
+        <v>3529032319.870424</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1121588151214336</v>
+        <v>0.1115056981773658</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02312413339151719</v>
+        <v>0.02003599509276768</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>134</v>
+      </c>
+      <c r="J27" t="n">
+        <v>326</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2671785422.898329</v>
+        <v>3269319326.359587</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1323445771122425</v>
+        <v>0.1259142084244765</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03640011715740432</v>
+        <v>0.04466585420793251</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4105229046.620468</v>
+        <v>4373737284.586415</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1420653315605377</v>
+        <v>0.1134958465021095</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03405718963982177</v>
+        <v>0.04525934493412069</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>299</v>
+      </c>
+      <c r="J29" t="n">
+        <v>325</v>
+      </c>
+      <c r="K29" t="n">
+        <v>73.37142070624206</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1747409005.935067</v>
+        <v>1956681022.110082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0955729646997744</v>
+        <v>0.1241552331766977</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03835042632420425</v>
+        <v>0.02709700554630379</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1412387667.429905</v>
+        <v>904600738.1413246</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07521638352456822</v>
+        <v>0.0967202494955462</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03460899287645369</v>
+        <v>0.04316395271507804</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1655414106.466819</v>
+        <v>1843557064.656702</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08420964564864619</v>
+        <v>0.1049763751230433</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03811022197007825</v>
+        <v>0.02583768444407512</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2946565551.353045</v>
+        <v>2414294350.169663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.137207207519842</v>
+        <v>0.1625993388153209</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06008180601476888</v>
+        <v>0.04144472692084686</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1303690426.446469</v>
+        <v>1375898678.88246</v>
       </c>
       <c r="F34" t="n">
-        <v>0.117761039170693</v>
+        <v>0.1118983098928197</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01892860580682776</v>
+        <v>0.02072463885466569</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>947531856.1219209</v>
+        <v>1295872014.273916</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07320641428974609</v>
+        <v>0.08263343811769013</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03958195298325427</v>
+        <v>0.03578890588812561</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3198871074.087022</v>
+        <v>2427042518.796643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1685228870175771</v>
+        <v>0.1675837019902948</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02714223972382392</v>
+        <v>0.02018274556055118</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2853734813.843076</v>
+        <v>2167052877.806361</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09268106724806426</v>
+        <v>0.06918632314069273</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03890393190655778</v>
+        <v>0.02734274356604413</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684679530.40328</v>
+        <v>1618933791.874459</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08289738408176223</v>
+        <v>0.0805237898608944</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02896478766137396</v>
+        <v>0.03914619383064593</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1676620784.378007</v>
+        <v>2176762915.390831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1347102768152932</v>
+        <v>0.1347360079781008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03299764696469445</v>
+        <v>0.02679850491539507</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1537216560.878141</v>
+        <v>1135187857.247284</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1167469495423578</v>
+        <v>0.159337191540331</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04695931295412527</v>
+        <v>0.05918981102389084</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1851005779.223528</v>
+        <v>1940827296.663615</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1570882772192184</v>
+        <v>0.1369454914026617</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03018060170759131</v>
+        <v>0.02869458802258308</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3552615787.836179</v>
+        <v>3821036561.476176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1218514553184253</v>
+        <v>0.1088114517575432</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03761426819155386</v>
+        <v>0.02931301966021057</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>136</v>
+      </c>
+      <c r="J42" t="n">
+        <v>326</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2329043657.470495</v>
+        <v>2811025644.462978</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1334125368198377</v>
+        <v>0.1860226180251183</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01910855383094946</v>
+        <v>0.01829225999162261</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2101838996.248175</v>
+        <v>1526548988.64785</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09927591856327642</v>
+        <v>0.07281999822392286</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03339484669394831</v>
+        <v>0.02520200175014953</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1569639868.488668</v>
+        <v>2155217530.671768</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1738600998593657</v>
+        <v>0.1528771395165209</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04432642219643052</v>
+        <v>0.04338241086568374</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4628094933.857173</v>
+        <v>4041477189.322506</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1504529074832808</v>
+        <v>0.1544272018919077</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06083353482438526</v>
+        <v>0.0379048517346692</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>194</v>
+      </c>
+      <c r="J46" t="n">
+        <v>326</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3885588188.736791</v>
+        <v>4375287961.640636</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1440306010498161</v>
+        <v>0.1975807331205545</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05618843022267383</v>
+        <v>0.05146730209593677</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>145</v>
+      </c>
+      <c r="J47" t="n">
+        <v>326</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3923067983.502945</v>
+        <v>3026601436.49956</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07239111746654162</v>
+        <v>0.06849684907799848</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02548870043266975</v>
+        <v>0.03645344591514995</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>163</v>
+      </c>
+      <c r="J48" t="n">
+        <v>325</v>
+      </c>
+      <c r="K48" t="n">
+        <v>48.44401560940672</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1491951253.108442</v>
+        <v>1712464226.170848</v>
       </c>
       <c r="F49" t="n">
-        <v>0.161649520144715</v>
+        <v>0.1894495074556246</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03763012910599485</v>
+        <v>0.04281371774026695</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3261292752.821115</v>
+        <v>3012853001.916814</v>
       </c>
       <c r="F50" t="n">
-        <v>0.140518644186821</v>
+        <v>0.1314690355492655</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04756657337267606</v>
+        <v>0.04146991892245765</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>106</v>
+      </c>
+      <c r="J50" t="n">
+        <v>324</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>947090795.0243579</v>
+        <v>1234112735.454185</v>
       </c>
       <c r="F51" t="n">
-        <v>0.167263954809135</v>
+        <v>0.1617095435523712</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04695443375587863</v>
+        <v>0.0429612971906962</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4255602266.755078</v>
+        <v>3847318723.628551</v>
       </c>
       <c r="F52" t="n">
-        <v>0.131081549346473</v>
+        <v>0.1237491155002147</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05624317056849559</v>
+        <v>0.05258568525299316</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>197</v>
+      </c>
+      <c r="J52" t="n">
+        <v>325</v>
+      </c>
+      <c r="K52" t="n">
+        <v>68.93147513774795</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2909785800.134463</v>
+        <v>2857499972.402352</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1625376096549535</v>
+        <v>0.1892793585403797</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03371829533219517</v>
+        <v>0.03035604827589171</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3725822570.569442</v>
+        <v>4427243520.615811</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1517477450316281</v>
+        <v>0.1278194859069194</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04592351425093037</v>
+        <v>0.04365146978322248</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>171</v>
+      </c>
+      <c r="J54" t="n">
+        <v>326</v>
+      </c>
+      <c r="K54" t="n">
+        <v>74.80199137111529</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3453666608.53741</v>
+        <v>4237295976.181231</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1981624054374509</v>
+        <v>0.1870188780785402</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03199569594594756</v>
+        <v>0.02196035379664922</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>152</v>
+      </c>
+      <c r="J55" t="n">
+        <v>326</v>
+      </c>
+      <c r="K55" t="n">
+        <v>75.62149853460954</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1137558336.023512</v>
+        <v>1353507992.530892</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1283160959849041</v>
+        <v>0.1415679643020865</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05678479006209309</v>
+        <v>0.03932531360408182</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4463488961.116478</v>
+        <v>3483775477.366835</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1809617076193041</v>
+        <v>0.1608471874094096</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02108643631613018</v>
+        <v>0.02186154252184808</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>134</v>
+      </c>
+      <c r="J57" t="n">
+        <v>325</v>
+      </c>
+      <c r="K57" t="n">
+        <v>60.33442997683775</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1718342363.076438</v>
+        <v>1329654747.954652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1263509615717404</v>
+        <v>0.1494862751761491</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02404699280954949</v>
+        <v>0.02807857176468499</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4900523866.222964</v>
+        <v>3828921862.121419</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1010104144643944</v>
+        <v>0.1075942007210988</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03361094159336817</v>
+        <v>0.03558098470226292</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>157</v>
+      </c>
+      <c r="J59" t="n">
+        <v>326</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2916253921.563408</v>
+        <v>2412850849.834986</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1403301392982262</v>
+        <v>0.1424275252202874</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02110909299295492</v>
+        <v>0.03138269023439074</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>57</v>
+      </c>
+      <c r="J60" t="n">
+        <v>325</v>
+      </c>
+      <c r="K60" t="n">
+        <v>35.6787052581837</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2200554889.627726</v>
+        <v>2876729262.630769</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1253105488851995</v>
+        <v>0.1276332815793429</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0216401289183474</v>
+        <v>0.02015948780477464</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1909653956.852747</v>
+        <v>1307495120.204997</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1478841476255947</v>
+        <v>0.1331806107941451</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04118178946813632</v>
+        <v>0.04647762563176495</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5280358397.412941</v>
+        <v>4764489618.333792</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1012915551118107</v>
+        <v>0.09995324037298574</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04755807547395972</v>
+        <v>0.03788812838958624</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>158</v>
+      </c>
+      <c r="J63" t="n">
+        <v>326</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3547612690.998891</v>
+        <v>3658716688.358418</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1513647430988732</v>
+        <v>0.1647562932187947</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02377965326209808</v>
+        <v>0.02864712516068444</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>161</v>
+      </c>
+      <c r="J64" t="n">
+        <v>325</v>
+      </c>
+      <c r="K64" t="n">
+        <v>65.31045296136188</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4834746174.477067</v>
+        <v>4205053140.525011</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1129812380191762</v>
+        <v>0.1679766318703213</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02237435953210395</v>
+        <v>0.03044950472903747</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>255</v>
+      </c>
+      <c r="J65" t="n">
+        <v>326</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3505125569.128224</v>
+        <v>4485978118.11016</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1129778697702093</v>
+        <v>0.1322316151274943</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04722008672187117</v>
+        <v>0.04114504003026206</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>161</v>
+      </c>
+      <c r="J66" t="n">
+        <v>325</v>
+      </c>
+      <c r="K66" t="n">
+        <v>66.94321849851028</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3312266128.653152</v>
+        <v>2240811339.313125</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09888830884697702</v>
+        <v>0.075773913138208</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0503648034516336</v>
+        <v>0.04431481016408748</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5685140184.360093</v>
+        <v>5425874232.667427</v>
       </c>
       <c r="F68" t="n">
-        <v>0.113972163930472</v>
+        <v>0.1461688958941703</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04716605415966277</v>
+        <v>0.05039840616820115</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>176</v>
+      </c>
+      <c r="J68" t="n">
+        <v>326</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1656703258.763833</v>
+        <v>1695278400.761512</v>
       </c>
       <c r="F69" t="n">
-        <v>0.126463557297458</v>
+        <v>0.1352681336480676</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0428413514471576</v>
+        <v>0.05446642127121205</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3217935817.804672</v>
+        <v>2622062133.427848</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08192863635443245</v>
+        <v>0.0963907070467481</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03834177227626511</v>
+        <v>0.03333253628883672</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3643089154.796476</v>
+        <v>5586832012.296144</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1487909927626482</v>
+        <v>0.1840601570302234</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02228089204885292</v>
+        <v>0.03061464195087055</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>240</v>
+      </c>
+      <c r="J71" t="n">
+        <v>326</v>
+      </c>
+      <c r="K71" t="n">
+        <v>74.13317813790815</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1461234168.406878</v>
+        <v>1912719142.716162</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09564624698294603</v>
+        <v>0.09169572422107397</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04380063718723971</v>
+        <v>0.05205147970650811</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2407584787.448627</v>
+        <v>3030087203.35203</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1120952522769587</v>
+        <v>0.06790355173040773</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05197597015791687</v>
+        <v>0.03920338418458837</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3848314377.573304</v>
+        <v>3881001131.404869</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1223575742403888</v>
+        <v>0.1461918730615008</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02923683990573909</v>
+        <v>0.02929608778761097</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>85</v>
+      </c>
+      <c r="J74" t="n">
+        <v>326</v>
+      </c>
+      <c r="K74" t="n">
+        <v>87.78216757464469</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1622755564.411683</v>
+        <v>2270623328.196566</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1202057888413437</v>
+        <v>0.1486904097788612</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02636016486794271</v>
+        <v>0.02569008680057158</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4379564160.037504</v>
+        <v>3763882962.02695</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1013806985515388</v>
+        <v>0.07724412057976324</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03030379359056463</v>
+        <v>0.02876360829136013</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>154</v>
+      </c>
+      <c r="J76" t="n">
+        <v>325</v>
+      </c>
+      <c r="K76" t="n">
+        <v>64.9470540761332</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1533289388.216394</v>
+        <v>1454686732.192107</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1694833811683488</v>
+        <v>0.1854731668351618</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02202171257361931</v>
+        <v>0.01946958756935089</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4357264399.617815</v>
+        <v>4651167937.008419</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1166737705614684</v>
+        <v>0.1037545098651461</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03871425759020287</v>
+        <v>0.05297946629873264</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>160</v>
+      </c>
+      <c r="J78" t="n">
+        <v>326</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1229016211.678752</v>
+        <v>1530177235.766546</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1247974466598461</v>
+        <v>0.1078976496884155</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03867050673747544</v>
+        <v>0.02898555463611304</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5225666344.505858</v>
+        <v>5160439230.17845</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09434862452646949</v>
+        <v>0.1000555017597534</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02546358557533553</v>
+        <v>0.02337809857845673</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>159</v>
+      </c>
+      <c r="J80" t="n">
+        <v>326</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5156777505.931153</v>
+        <v>4548713549.201743</v>
       </c>
       <c r="F81" t="n">
-        <v>0.124812853223337</v>
+        <v>0.1016293360810538</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02483099460860525</v>
+        <v>0.02983091277008493</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>150</v>
+      </c>
+      <c r="J81" t="n">
+        <v>325</v>
+      </c>
+      <c r="K81" t="n">
+        <v>69.30786895092982</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4913264454.258472</v>
+        <v>3999825255.796535</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1367736962788476</v>
+        <v>0.2029366773510673</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02523846217812442</v>
+        <v>0.02163339381884201</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>235</v>
+      </c>
+      <c r="J82" t="n">
+        <v>325</v>
+      </c>
+      <c r="K82" t="n">
+        <v>70.8278116371921</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1736671763.35865</v>
+        <v>2330691128.243971</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09875637722156116</v>
+        <v>0.1067500860799995</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02955863557039432</v>
+        <v>0.04516314840416009</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2321374809.610272</v>
+        <v>2198812647.917218</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1162509902821186</v>
+        <v>0.07732822985750705</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04068064639826818</v>
+        <v>0.04425996440294513</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3129060987.251158</v>
+        <v>3310555231.868357</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1771094472428824</v>
+        <v>0.1652897362851704</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05405183874903802</v>
+        <v>0.05216401077500872</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2623377163.005752</v>
+        <v>1720183259.97765</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1193300264794667</v>
+        <v>0.1293488637648539</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01667976959156095</v>
+        <v>0.02556278321776549</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1007618060.978176</v>
+        <v>989581831.6662096</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1889254686420968</v>
+        <v>0.1468528139204563</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02947199353670817</v>
+        <v>0.02754908721758283</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3165588853.552771</v>
+        <v>3407437033.566931</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1568506317728009</v>
+        <v>0.1243898225313667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02803304833729151</v>
+        <v>0.03175951442710757</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2194004274.271871</v>
+        <v>3465862773.137583</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1524652993237415</v>
+        <v>0.1498777300938305</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03611018205440828</v>
+        <v>0.0370385468563309</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1560520768.621096</v>
+        <v>1975936308.915254</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1038741124941105</v>
+        <v>0.1266897662330972</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03541275131685773</v>
+        <v>0.05164173512640994</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1489897904.403324</v>
+        <v>1528488485.26252</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1638394208963314</v>
+        <v>0.1286485466767557</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05169259375353962</v>
+        <v>0.04102982222676338</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1978179881.041147</v>
+        <v>1829531148.009042</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09677033396957697</v>
+        <v>0.08246691040174575</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04575407155901627</v>
+        <v>0.04473006183012924</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3105577478.089568</v>
+        <v>4291047176.51253</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1049194243270834</v>
+        <v>0.1012368546354484</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0437918918611049</v>
+        <v>0.04541629162056022</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>148</v>
+      </c>
+      <c r="J93" t="n">
+        <v>326</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2236151914.391622</v>
+        <v>2017578855.262881</v>
       </c>
       <c r="F94" t="n">
-        <v>0.107880507836694</v>
+        <v>0.1047424189081897</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04072663533790418</v>
+        <v>0.02781706490789154</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3199472319.283917</v>
+        <v>2590728641.793139</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08819933651671041</v>
+        <v>0.08473277611991308</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03993670816187927</v>
+        <v>0.03965252463529552</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1793585360.068234</v>
+        <v>2141005911.173846</v>
       </c>
       <c r="F96" t="n">
-        <v>0.111718189509193</v>
+        <v>0.1079508892373986</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03253879698271739</v>
+        <v>0.04231863231898343</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4531419179.169827</v>
+        <v>4503741853.552358</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1693797394013483</v>
+        <v>0.1151014670742196</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02912027968479065</v>
+        <v>0.02086577193441477</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>166</v>
+      </c>
+      <c r="J97" t="n">
+        <v>326</v>
+      </c>
+      <c r="K97" t="n">
+        <v>74.50371587630909</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3684103776.316325</v>
+        <v>3933413848.898533</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1068586167777132</v>
+        <v>0.08156176758504692</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02620668999227116</v>
+        <v>0.02484261622995896</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>80</v>
+      </c>
+      <c r="J98" t="n">
+        <v>326</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2799879000.416992</v>
+        <v>3360481016.418277</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1113107710796086</v>
+        <v>0.09784382235295373</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02645629095849797</v>
+        <v>0.02341971508349576</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4459630478.524599</v>
+        <v>4740951354.567292</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1225432582721369</v>
+        <v>0.1645865452632422</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02182353899103711</v>
+        <v>0.02028250871116188</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>145</v>
+      </c>
+      <c r="J100" t="n">
+        <v>325</v>
+      </c>
+      <c r="K100" t="n">
+        <v>73.26592386389503</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3171789369.895534</v>
+        <v>2368064580.72868</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1609724341543594</v>
+        <v>0.1613910314709291</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05182944323098542</v>
+        <v>0.05537224197232127</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
